--- a/results/MVSE/imdb/MVSE_imdb<l03>AllRes_60.15.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03>AllRes_60.15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -711,34 +711,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="O4" t="n">
-        <v>59.32</v>
+        <v>59.42</v>
       </c>
       <c r="P4" t="n">
         <v>0.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.09</v>
+        <v>0.36</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_30_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_11_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -785,20 +785,20 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O5" t="n">
-        <v>58.57</v>
+        <v>59.32</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08</v>
+        <v>1.09</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_30_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -807,7 +807,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -827,14 +827,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -854,20 +854,20 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="O6" t="n">
-        <v>58.5</v>
+        <v>58.96</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.43</v>
+        <v>0.41</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_32_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_10_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -876,7 +876,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -888,11 +888,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -900,14 +896,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -927,20 +923,20 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>0.99</v>
       </c>
       <c r="O7" t="n">
-        <v>57.73</v>
+        <v>58.57</v>
       </c>
       <c r="P7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.53</v>
+        <v>0.08</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -949,7 +945,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -961,11 +957,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -980,7 +972,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -995,34 +987,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>57.55</v>
+        <v>58.5</v>
       </c>
       <c r="P8" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.92</v>
+        <v>1.43</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_32_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1073,29 +1065,29 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
-        <v>57.15</v>
+        <v>57.73</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.39</v>
+        <v>0.53</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1126,7 +1118,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1142,33 +1134,33 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="O10" t="n">
-        <v>57.13</v>
+        <v>57.55</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1199,7 +1191,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1219,29 +1211,29 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="O11" t="n">
-        <v>56.49</v>
+        <v>57.15</v>
       </c>
       <c r="P11" t="n">
         <v>0.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.91</v>
+        <v>2.39</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1288,33 +1280,33 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="O12" t="n">
-        <v>56.37</v>
+        <v>57.13</v>
       </c>
       <c r="P12" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.66</v>
+        <v>0.99</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1368,26 +1360,26 @@
         <v>1.17</v>
       </c>
       <c r="O13" t="n">
-        <v>55.86</v>
+        <v>56.49</v>
       </c>
       <c r="P13" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>0.91</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1418,7 +1410,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1440,27 +1432,27 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="O14" t="n">
-        <v>55.45</v>
+        <v>56.37</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.78</v>
+        <v>1.66</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1491,7 +1483,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1511,29 +1503,29 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="O15" t="n">
-        <v>55.12</v>
+        <v>55.86</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.41</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1580,33 +1572,33 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="O16" t="n">
-        <v>54.95</v>
+        <v>55.45</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1657,23 +1649,169 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O17" t="n">
+        <v>55.12</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O18" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
         <v>1.31</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O19" t="n">
         <v>53.79</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P19" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q19" t="n">
         <v>1.87</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="n">
+      <c r="S19" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l03>AllRes_60.15.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03>AllRes_60.15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>1.05</v>
@@ -731,14 +731,14 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_11_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_20_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -758,14 +758,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -782,23 +782,23 @@
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="O5" t="n">
-        <v>59.32</v>
+        <v>59.42</v>
       </c>
       <c r="P5" t="n">
         <v>0.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.09</v>
+        <v>0.36</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_30_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_17_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -807,7 +807,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -827,14 +827,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -849,34 +849,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="O6" t="n">
-        <v>58.96</v>
+        <v>59.42</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_10_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_11_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -923,20 +923,20 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O7" t="n">
-        <v>58.57</v>
+        <v>59.32</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08</v>
+        <v>1.09</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_30_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -945,7 +945,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -965,14 +965,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -992,20 +992,20 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="O8" t="n">
-        <v>58.5</v>
+        <v>58.96</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.43</v>
+        <v>0.41</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_32_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_10_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1014,7 +1014,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1026,11 +1026,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1038,14 +1034,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1065,20 +1061,20 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>0.99</v>
       </c>
       <c r="O9" t="n">
-        <v>57.73</v>
+        <v>58.57</v>
       </c>
       <c r="P9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.53</v>
+        <v>0.08</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1087,7 +1083,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1099,11 +1095,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1118,7 +1110,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1133,34 +1125,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>57.55</v>
+        <v>58.5</v>
       </c>
       <c r="P10" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.92</v>
+        <v>1.43</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_32_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1211,29 +1203,29 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
-        <v>57.15</v>
+        <v>57.73</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.39</v>
+        <v>0.53</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1264,7 +1256,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1280,33 +1272,33 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="O12" t="n">
-        <v>57.13</v>
+        <v>57.55</v>
       </c>
       <c r="P12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1337,7 +1329,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1357,29 +1349,29 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="O13" t="n">
-        <v>56.49</v>
+        <v>57.15</v>
       </c>
       <c r="P13" t="n">
         <v>0.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.91</v>
+        <v>2.39</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1426,33 +1418,33 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="O14" t="n">
-        <v>56.37</v>
+        <v>57.13</v>
       </c>
       <c r="P14" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.66</v>
+        <v>0.99</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1506,26 +1498,26 @@
         <v>1.17</v>
       </c>
       <c r="O15" t="n">
-        <v>55.86</v>
+        <v>56.49</v>
       </c>
       <c r="P15" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>0.91</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1556,7 +1548,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1578,27 +1570,27 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="O16" t="n">
-        <v>55.45</v>
+        <v>56.37</v>
       </c>
       <c r="P16" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.78</v>
+        <v>1.66</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1629,7 +1621,7 @@
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1649,29 +1641,29 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="O17" t="n">
-        <v>55.12</v>
+        <v>55.86</v>
       </c>
       <c r="P17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.41</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1718,33 +1710,33 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="O18" t="n">
-        <v>54.95</v>
+        <v>55.45</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1795,23 +1787,169 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O19" t="n">
+        <v>55.12</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O20" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
         <v>1.31</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O21" t="n">
         <v>53.79</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P21" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q21" t="n">
         <v>1.87</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="n">
+      <c r="S21" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l03>AllRes_60.15.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03>AllRes_60.15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1333,33 +1333,33 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="O13" t="n">
-        <v>58.26</v>
+        <v>58.48</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.52</v>
+        <v>1.46</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_54_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-17_23_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1371,11 +1371,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1383,14 +1379,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1405,34 +1401,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="O14" t="n">
-        <v>57.73</v>
+        <v>58.26</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_54_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1456,7 +1452,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1478,34 +1474,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="O15" t="n">
-        <v>57.55</v>
+        <v>57.73</v>
       </c>
       <c r="P15" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.92</v>
+        <v>0.53</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1529,7 +1525,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1551,34 +1547,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="O16" t="n">
-        <v>57.15</v>
+        <v>57.55</v>
       </c>
       <c r="P16" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.39</v>
+        <v>0.92</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1602,14 +1598,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1624,34 +1620,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="O17" t="n">
-        <v>57.13</v>
+        <v>57.15</v>
       </c>
       <c r="P17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.99</v>
+        <v>2.39</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1675,7 +1671,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1697,34 +1693,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="O18" t="n">
-        <v>56.49</v>
+        <v>57.13</v>
       </c>
       <c r="P18" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1748,7 +1744,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1770,34 +1766,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="O19" t="n">
-        <v>56.37</v>
+        <v>56.49</v>
       </c>
       <c r="P19" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.66</v>
+        <v>0.91</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1821,7 +1817,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1843,34 +1839,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="O20" t="n">
-        <v>55.86</v>
+        <v>56.37</v>
       </c>
       <c r="P20" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1894,14 +1890,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
         <v>50</v>
@@ -1916,34 +1912,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="O21" t="n">
-        <v>55.45</v>
+        <v>55.86</v>
       </c>
       <c r="P21" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.78</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1967,7 +1963,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1989,34 +1985,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="O22" t="n">
-        <v>55.12</v>
+        <v>55.45</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.41</v>
+        <v>0.78</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2040,7 +2036,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2062,9 +2058,7 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>3</v>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>2</v>
       </c>
@@ -2072,24 +2066,26 @@
         <v>1.35</v>
       </c>
       <c r="O23" t="n">
-        <v>54.95</v>
+        <v>55.12</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2113,7 +2109,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2135,28 +2131,101 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O24" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
         <v>1.31</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O25" t="n">
         <v>53.79</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q25" t="n">
         <v>1.87</v>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S24" t="n">
+      <c r="S25" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l03>AllRes_60.15.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03>AllRes_60.15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         <v>128</v>
       </c>
       <c r="H3" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -643,33 +643,33 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>59.75</v>
+        <v>59.95</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.18</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_32_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_23_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -718,27 +718,27 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="O4" t="n">
-        <v>59.74</v>
+        <v>59.75</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.85</v>
+        <v>1.18</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_11_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_32_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -758,14 +758,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -780,34 +780,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="O5" t="n">
-        <v>59.43</v>
+        <v>59.74</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_30_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_11_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -857,17 +857,17 @@
         <v>0.96</v>
       </c>
       <c r="O6" t="n">
-        <v>59.32</v>
+        <v>59.55</v>
       </c>
       <c r="P6" t="n">
         <v>0.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_30_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_09_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -876,7 +876,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -926,17 +926,17 @@
         <v>1.03</v>
       </c>
       <c r="O7" t="n">
-        <v>59.3</v>
+        <v>59.46</v>
       </c>
       <c r="P7" t="n">
         <v>0.09</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.11</v>
+        <v>0.68</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_51_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_25_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -945,7 +945,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -987,34 +987,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.07</v>
-      </c>
       <c r="O8" t="n">
-        <v>59.27</v>
+        <v>59.43</v>
       </c>
       <c r="P8" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.44</v>
+        <v>1.03</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_30_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_30_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1057,33 +1057,33 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="O9" t="n">
-        <v>58.93</v>
+        <v>59.38</v>
       </c>
       <c r="P9" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_09_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_08_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1103,14 +1103,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1125,34 +1125,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="O10" t="n">
-        <v>58.69</v>
+        <v>59.37</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_50_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_41_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1199,20 +1199,20 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O11" t="n">
-        <v>58.57</v>
+        <v>59.32</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.09</v>
+        <v>1.21</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_10_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_30_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1221,7 +1221,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1268,29 +1268,29 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="O12" t="n">
-        <v>58.5</v>
+        <v>59.3</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>0.11</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_10_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_51_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1310,14 +1310,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1332,34 +1332,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="O13" t="n">
-        <v>58.48</v>
+        <v>59.29</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-17_23_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_24_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1402,33 +1402,33 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="O14" t="n">
-        <v>58.26</v>
+        <v>59.27</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.52</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_54_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_30_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1440,11 +1440,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1452,14 +1448,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1474,34 +1470,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="O15" t="n">
-        <v>57.73</v>
+        <v>59.07</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.53</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_55_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1513,11 +1509,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1532,7 +1524,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1554,100 +1546,96 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>57.55</v>
+        <v>59</v>
       </c>
       <c r="P16" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_47_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>128</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
         <v>3</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>imdb</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NCEK</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>128</v>
-      </c>
-      <c r="H17" t="n">
-        <v>200</v>
-      </c>
-      <c r="I17" t="n">
-        <v>50</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="O17" t="n">
-        <v>57.15</v>
+        <v>58.98</v>
       </c>
       <c r="P17" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.39</v>
+        <v>0.68</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_39_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1659,11 +1647,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1678,7 +1662,7 @@
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1694,33 +1678,33 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="O18" t="n">
-        <v>57.13</v>
+        <v>58.93</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.99</v>
+        <v>1.68</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_09_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1732,11 +1716,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1744,14 +1724,14 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
@@ -1766,34 +1746,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="O19" t="n">
-        <v>56.49</v>
+        <v>58.86</v>
       </c>
       <c r="P19" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.91</v>
+        <v>1.68</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_59_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1805,11 +1785,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1824,7 +1800,7 @@
         <v>128</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="I20" t="n">
         <v>50</v>
@@ -1840,33 +1816,33 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="O20" t="n">
-        <v>56.37</v>
+        <v>58.73</v>
       </c>
       <c r="P20" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.66</v>
+        <v>0.75</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_23_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1878,11 +1854,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1890,14 +1862,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I21" t="n">
         <v>50</v>
@@ -1912,34 +1884,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="O21" t="n">
-        <v>55.86</v>
+        <v>58.69</v>
       </c>
       <c r="P21" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_50_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1951,11 +1923,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1963,14 +1931,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>128</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I22" t="n">
         <v>50</v>
@@ -1985,34 +1953,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.28</v>
+        <v>0.99</v>
       </c>
       <c r="O22" t="n">
-        <v>55.45</v>
+        <v>58.57</v>
       </c>
       <c r="P22" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.78</v>
+        <v>0.09</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_10_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2024,11 +1992,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2043,7 +2007,7 @@
         <v>128</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I23" t="n">
         <v>50</v>
@@ -2063,29 +2027,29 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>55.12</v>
+        <v>58.5</v>
       </c>
       <c r="P23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.41</v>
+        <v>1.6</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_10_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2097,11 +2061,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2116,7 +2076,7 @@
         <v>128</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I24" t="n">
         <v>50</v>
@@ -2132,100 +2092,899 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
       <c r="O24" t="n">
-        <v>54.95</v>
+        <v>58.48</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.39</v>
+        <v>1.46</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-17_23_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O25" t="n">
+        <v>58.26</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_54_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>128</v>
+      </c>
+      <c r="H26" t="n">
+        <v>200</v>
+      </c>
+      <c r="I26" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>57.73</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>128</v>
+      </c>
+      <c r="H27" t="n">
+        <v>200</v>
+      </c>
+      <c r="I27" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O27" t="n">
+        <v>57.55</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>128</v>
+      </c>
+      <c r="H28" t="n">
+        <v>200</v>
+      </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>57.15</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>128</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>50</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O29" t="n">
+        <v>57.13</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>128</v>
+      </c>
+      <c r="H30" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" t="n">
+        <v>50</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O30" t="n">
+        <v>56.49</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>128</v>
+      </c>
+      <c r="H31" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" t="n">
+        <v>50</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O31" t="n">
+        <v>56.37</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>128</v>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O32" t="n">
+        <v>55.86</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>128</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>50</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O33" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>128</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>50</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O34" t="n">
+        <v>55.12</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>128</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>50</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O35" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>moco</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>imdb</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>NCEK</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>128</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G36" t="n">
+        <v>128</v>
+      </c>
+      <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>50</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="I36" t="n">
+        <v>50</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
         <v>1.31</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O36" t="n">
         <v>53.79</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P36" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q36" t="n">
         <v>1.87</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="n">
+      <c r="S36" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l03>AllRes_60.15.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03>AllRes_60.15.xlsx
@@ -596,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_52_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -612,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -665,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_23_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -681,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -734,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_32_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -750,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -803,7 +821,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_11_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -819,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -849,7 +873,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
@@ -888,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -918,7 +948,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
@@ -957,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -987,7 +1023,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
@@ -1026,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1079,7 +1121,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_08_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1095,7 +1139,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1125,7 +1173,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
@@ -1164,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1194,7 +1248,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
@@ -1233,7 +1289,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1263,7 +1323,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
@@ -1302,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1332,7 +1398,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
@@ -1371,7 +1439,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1424,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_30_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1440,7 +1514,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1493,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_55_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1509,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1562,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_47_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1578,7 +1664,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1631,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_39_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1647,7 +1739,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1700,7 +1796,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_09_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1716,7 +1814,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1769,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_59_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1785,7 +1889,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1838,7 +1946,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_23_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1854,7 +1964,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1907,7 +2021,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_50_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1923,7 +2039,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1953,7 +2073,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
@@ -1992,7 +2114,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2022,7 +2148,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
@@ -2061,7 +2189,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2114,7 +2246,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-17_23_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2130,7 +2264,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2183,7 +2321,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_54_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2233,7 +2373,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
@@ -2329,7 +2471,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_51_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2379,7 +2523,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
@@ -2475,7 +2621,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2525,7 +2673,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
@@ -2621,7 +2771,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_07_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2671,7 +2823,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
@@ -2767,7 +2921,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2817,7 +2973,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
@@ -2913,7 +3071,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2963,7 +3123,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
